--- a/CatSoFun/trunk/document/CAT-SoFun題庫資料整理.xlsx
+++ b/CatSoFun/trunk/document/CAT-SoFun題庫資料整理.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="題目參數" sheetId="2" r:id="rId1"/>
     <sheet name="Resp" sheetId="1" r:id="rId2"/>
+    <sheet name="題目整理" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="135">
   <si>
     <t>W_3</t>
   </si>
@@ -199,12 +195,342 @@
     <t>題目</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>SSQOL 3-17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-22?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-10?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-11?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-12?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-13?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-14?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-15?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-116?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有些活動或感覺有時會受中風影響，因此我們希望瞭解您對從事這些活動
+或感覺的看法。每項問題將問您有關某特定的活動或感覺。針對每個問題請您思
+考 過去一週這些活動或感覺的情況如何。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一組問題將問您從事某項特定的活動時有多少困難。每項問題都是探討
+有些人在中風後所遇到的困難。空格中的號碼描述您過去一週從事該活動時的困
+難，請您將最適當的號碼圈起來或打。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全
+無法做到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很多
+困難</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等
+困難</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一點
+困難</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全
+沒有困難</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在過去一週裡：</t>
+  </si>
+  <si>
+    <t>您從事以前的工作有困難嗎？</t>
+  </si>
+  <si>
+    <t>下一組問題問您對每項陳述同意或不同意的程度。每項問題都是探討有些
+人在中風後所遇到的困難或感受。空格中的號碼描述您過去一週對每項陳述的
+感覺，請您將最適當的號碼圈起來或打。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常
+同意</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等
+同意</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同意
+也
+不反對</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等
+不同意</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常
+不同意</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我覺得自己是家人的負擔。</t>
+  </si>
+  <si>
+    <t>我的身體狀況妨礙我的家庭生活。</t>
+  </si>
+  <si>
+    <t>我出門的次數沒有我想要的那麼多。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我從事嗜好及娛樂的時間，比我想要
+的時間少。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我見到的朋友沒有我想要的那麼多。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的性生活沒有我想要的那麼多。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的身體狀況妨礙到我的社交生活。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下的問題是有關中風是否影響您平常會去參與的一些活動，及一些對您有意義、並有助您找到人生目標的事物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>從未如此</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很少時間如此</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>某些時間如此</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大部分時間如此</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>總是如此</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在過去四星期內,您在從事以下活動而感覺受限的情況有多頻繁…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的工作(不論是有給職ヽ義工ヽ或其它工作)?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的社交活動?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>靜態休閒活動(如手工藝品製作ヽ閱讀)?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>動態休閒活動(如運動ヽ遠足ヽ旅遊)?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您扮演一位家庭成員或朋友的角色?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您參與靈性或宗教性活動?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您幫助他人的能力?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>這份問卷詢問您對於自己的生活品質、健康、以及其他生活領域的感覺。請您回答所有的問題。如果您對某一問題的回答不確定，請選出五個答案中最適合的一個，通常會是您最早想的那個答案。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我們的問題所關心的是您最近兩星期內的生活情形，請您用自己的標準、希望、愉快、以及關注點來回答問題。請參考下面的例題：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您滿意自己的工作能力嗎？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>極不滿意</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不滿意</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等程度滿意</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滿意</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>極滿意</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您滿意自己的人際關係嗎?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您滿意自己的性生活嗎?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您滿意朋友給您的支持嗎?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您覺得自己有面子或被尊重嗎?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全沒有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一點有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等程度有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>極有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您有機會從事休閒活動嗎?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全沒有機會</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少許機會</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等程度機會</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很有機會</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全有機會</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在過去一週裡：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我對別人感到退縮。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下問題是有關您中風後的感覺、心情的改變及情緒控制的能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>從來沒有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很少</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶爾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>總是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在過去一星期內‚您出現以下情況有多頻繁…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感覺沒有親近的人?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感覺您是別人的負擔?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -266,15 +592,51 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -311,6 +673,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -320,7 +697,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,6 +744,87 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -429,7 +887,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,7 +922,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -641,21 +1099,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="9" max="9" width="45.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
@@ -666,7 +1124,7 @@
     <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -690,7 +1148,7 @@
       </c>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -715,9 +1173,12 @@
       <c r="I2" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="J2" t="s">
+        <v>57</v>
+      </c>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -742,8 +1203,11 @@
       <c r="I3" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -768,8 +1232,11 @@
       <c r="I4" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -794,8 +1261,11 @@
       <c r="I5" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -820,8 +1290,11 @@
       <c r="I6" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -846,8 +1319,11 @@
       <c r="I7" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -872,8 +1348,11 @@
       <c r="I8" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -898,8 +1377,11 @@
       <c r="I9" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -918,14 +1400,14 @@
       <c r="F10" s="1">
         <v>-0.44600000000000001</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="17" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -944,14 +1426,14 @@
       <c r="F11" s="1">
         <v>-0.53900000000000003</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="17" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -970,7 +1452,7 @@
       <c r="F12" s="1">
         <v>-0.41</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="17" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="9" t="s">
@@ -978,7 +1460,7 @@
       </c>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -997,7 +1479,7 @@
       <c r="F13" s="1">
         <v>-0.96</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="17" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="9" t="s">
@@ -1005,7 +1487,7 @@
       </c>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1024,7 +1506,7 @@
       <c r="F14" s="1">
         <v>-0.34599999999999997</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I14" s="9" t="s">
@@ -1032,7 +1514,7 @@
       </c>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1051,7 +1533,7 @@
       <c r="F15" s="1">
         <v>-0.66600000000000004</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="17" t="s">
         <v>13</v>
       </c>
       <c r="I15" s="9" t="s">
@@ -1059,7 +1541,7 @@
       </c>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1078,7 +1560,7 @@
       <c r="F16" s="1">
         <v>-0.38300000000000001</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="17" t="s">
         <v>14</v>
       </c>
       <c r="I16" s="9" t="s">
@@ -1086,7 +1568,7 @@
       </c>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1105,7 +1587,7 @@
       <c r="F17" s="1">
         <v>1.7989999999999999</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="17" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="9" t="s">
@@ -1118,7 +1600,7 @@
       <c r="N17" s="12"/>
       <c r="O17" s="15"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1137,7 +1619,7 @@
       <c r="F18" s="1">
         <v>2.4359999999999999</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="17" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="9" t="s">
@@ -1150,7 +1632,7 @@
       <c r="N18" s="12"/>
       <c r="O18" s="15"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1169,7 +1651,7 @@
       <c r="F19" s="1">
         <v>2.4700000000000002</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="17" t="s">
         <v>17</v>
       </c>
       <c r="I19" s="9" t="s">
@@ -1182,7 +1664,7 @@
       <c r="N19" s="12"/>
       <c r="O19" s="15"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1201,7 +1683,7 @@
       <c r="F20" s="1">
         <v>2.794</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="17" t="s">
         <v>18</v>
       </c>
       <c r="I20" s="9" t="s">
@@ -1214,7 +1696,7 @@
       <c r="N20" s="12"/>
       <c r="O20" s="15"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1233,7 +1715,7 @@
       <c r="F21" s="1">
         <v>2.1320000000000001</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="17" t="s">
         <v>19</v>
       </c>
       <c r="I21" s="9" t="s">
@@ -1246,7 +1728,7 @@
       <c r="N21" s="12"/>
       <c r="O21" s="15"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1265,7 +1747,7 @@
       <c r="F22" s="1">
         <v>1.427</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="17" t="s">
         <v>20</v>
       </c>
       <c r="I22" s="9" t="s">
@@ -1278,7 +1760,7 @@
       <c r="N22" s="12"/>
       <c r="O22" s="15"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1303,9 +1785,12 @@
       <c r="I23" s="10" t="s">
         <v>39</v>
       </c>
+      <c r="J23" t="s">
+        <v>56</v>
+      </c>
       <c r="O23" s="15"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1324,7 +1809,7 @@
       <c r="F24" s="1">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="17" t="s">
         <v>22</v>
       </c>
       <c r="I24" s="10" t="s">
@@ -1332,7 +1817,7 @@
       </c>
       <c r="O24" s="15"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1351,7 +1836,7 @@
       <c r="F25" s="1">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="17" t="s">
         <v>23</v>
       </c>
       <c r="I25" s="10" t="s">
@@ -1359,14 +1844,14 @@
       </c>
       <c r="O25" s="14"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="I26" s="9"/>
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="I28" s="9"/>
     </row>
   </sheetData>
@@ -1376,16 +1861,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="I2" sqref="I2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="2" customFormat="1">
       <c r="A1" s="6">
         <v>1</v>
       </c>
@@ -1459,7 +1944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="2" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1533,7 +2018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3" s="7">
         <v>5</v>
       </c>
@@ -1607,7 +2092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1681,7 +2166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" s="7">
         <v>5</v>
       </c>
@@ -1755,7 +2240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1829,7 +2314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1903,7 +2388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8" s="7">
         <v>3</v>
       </c>
@@ -1977,7 +2462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9" s="7">
         <v>5</v>
       </c>
@@ -2051,7 +2536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" s="7">
         <v>5</v>
       </c>
@@ -2125,7 +2610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
       <c r="A11" s="7">
         <v>5</v>
       </c>
@@ -2199,7 +2684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -2273,7 +2758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="A13" s="7">
         <v>4</v>
       </c>
@@ -2347,7 +2832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="A14" s="7">
         <v>5</v>
       </c>
@@ -2421,7 +2906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="A15" s="7">
         <v>5</v>
       </c>
@@ -2495,7 +2980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="A16" s="7">
         <v>3</v>
       </c>
@@ -2569,7 +3054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24">
       <c r="A17" s="7">
         <v>1</v>
       </c>
@@ -2643,7 +3128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24">
       <c r="A18" s="7">
         <v>5</v>
       </c>
@@ -2717,7 +3202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24">
       <c r="A19" s="7">
         <v>5</v>
       </c>
@@ -2791,7 +3276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24">
       <c r="A20" s="7">
         <v>5</v>
       </c>
@@ -2865,7 +3350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24">
       <c r="A21" s="7">
         <v>1</v>
       </c>
@@ -2939,7 +3424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24">
       <c r="A22" s="7">
         <v>3</v>
       </c>
@@ -3013,7 +3498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24">
       <c r="A23" s="7">
         <v>5</v>
       </c>
@@ -3087,7 +3572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24">
       <c r="A24" s="7">
         <v>1</v>
       </c>
@@ -3161,7 +3646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24">
       <c r="A25" s="7">
         <v>5</v>
       </c>
@@ -3235,7 +3720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24">
       <c r="A26" s="7">
         <v>4</v>
       </c>
@@ -3309,7 +3794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24">
       <c r="A27" s="7">
         <v>5</v>
       </c>
@@ -3383,7 +3868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24">
       <c r="A28" s="7">
         <v>2</v>
       </c>
@@ -3457,7 +3942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24">
       <c r="A29" s="7">
         <v>5</v>
       </c>
@@ -3531,7 +4016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24">
       <c r="A30" s="7">
         <v>4</v>
       </c>
@@ -3605,7 +4090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24">
       <c r="A31" s="7">
         <v>1</v>
       </c>
@@ -3679,7 +4164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24">
       <c r="A32" s="7">
         <v>1</v>
       </c>
@@ -3753,7 +4238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24">
       <c r="A33" s="7">
         <v>5</v>
       </c>
@@ -3827,7 +4312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24">
       <c r="A34" s="7">
         <v>5</v>
       </c>
@@ -3901,7 +4386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24">
       <c r="A35" s="7">
         <v>5</v>
       </c>
@@ -3975,7 +4460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24">
       <c r="A36" s="7">
         <v>2</v>
       </c>
@@ -4049,7 +4534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24">
       <c r="A37" s="7">
         <v>4</v>
       </c>
@@ -4123,7 +4608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24">
       <c r="A38" s="7">
         <v>5</v>
       </c>
@@ -4197,7 +4682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24">
       <c r="A39" s="7">
         <v>5</v>
       </c>
@@ -4271,7 +4756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24">
       <c r="A40" s="7">
         <v>1</v>
       </c>
@@ -4345,7 +4830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24">
       <c r="A41" s="7">
         <v>5</v>
       </c>
@@ -4419,7 +4904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24">
       <c r="A42" s="7">
         <v>1</v>
       </c>
@@ -4493,7 +4978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24">
       <c r="A43" s="7">
         <v>5</v>
       </c>
@@ -4567,7 +5052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24">
       <c r="A44" s="7">
         <v>1</v>
       </c>
@@ -4641,7 +5126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24">
       <c r="A45" s="7">
         <v>4</v>
       </c>
@@ -4715,7 +5200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24">
       <c r="A46" s="7">
         <v>4</v>
       </c>
@@ -4789,7 +5274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24">
       <c r="A47" s="7">
         <v>4</v>
       </c>
@@ -4863,7 +5348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24">
       <c r="A48" s="7">
         <v>5</v>
       </c>
@@ -4937,7 +5422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24">
       <c r="A49" s="7">
         <v>4</v>
       </c>
@@ -5011,7 +5496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24">
       <c r="A50" s="7">
         <v>1</v>
       </c>
@@ -5085,7 +5570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24">
       <c r="A51" s="7">
         <v>1</v>
       </c>
@@ -5159,7 +5644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24">
       <c r="A52" s="7">
         <v>4</v>
       </c>
@@ -5233,7 +5718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24">
       <c r="A53" s="7">
         <v>1</v>
       </c>
@@ -5307,7 +5792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24">
       <c r="A54" s="7">
         <v>3</v>
       </c>
@@ -5381,7 +5866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24">
       <c r="A55" s="7">
         <v>5</v>
       </c>
@@ -5455,7 +5940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24">
       <c r="A56" s="7">
         <v>1</v>
       </c>
@@ -5529,7 +6014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24">
       <c r="A57" s="7">
         <v>5</v>
       </c>
@@ -5603,7 +6088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24">
       <c r="A58" s="7">
         <v>5</v>
       </c>
@@ -5677,7 +6162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24">
       <c r="A59" s="7">
         <v>5</v>
       </c>
@@ -5751,7 +6236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24">
       <c r="A60" s="7">
         <v>1</v>
       </c>
@@ -5825,7 +6310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24">
       <c r="A61" s="7">
         <v>4</v>
       </c>
@@ -5899,7 +6384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24">
       <c r="A62" s="7">
         <v>1</v>
       </c>
@@ -5973,7 +6458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24">
       <c r="A63" s="7">
         <v>2</v>
       </c>
@@ -6047,7 +6532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24">
       <c r="A64" s="7">
         <v>1</v>
       </c>
@@ -6121,7 +6606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24">
       <c r="A65" s="7">
         <v>1</v>
       </c>
@@ -6195,7 +6680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24">
       <c r="A66" s="7">
         <v>1</v>
       </c>
@@ -6269,7 +6754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24">
       <c r="A67" s="7">
         <v>1</v>
       </c>
@@ -6343,7 +6828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24">
       <c r="A68" s="7">
         <v>3</v>
       </c>
@@ -6417,7 +6902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24">
       <c r="A69" s="7">
         <v>5</v>
       </c>
@@ -6491,7 +6976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24">
       <c r="A70" s="7">
         <v>3</v>
       </c>
@@ -6565,7 +7050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24">
       <c r="A71" s="7">
         <v>1</v>
       </c>
@@ -6639,7 +7124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24">
       <c r="A72" s="7">
         <v>1</v>
       </c>
@@ -6713,7 +7198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24">
       <c r="A73" s="7">
         <v>1</v>
       </c>
@@ -6787,7 +7272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24">
       <c r="A74" s="7">
         <v>1</v>
       </c>
@@ -6861,7 +7346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24">
       <c r="A75" s="7">
         <v>1</v>
       </c>
@@ -6935,7 +7420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24">
       <c r="A76" s="7">
         <v>4</v>
       </c>
@@ -7009,7 +7494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24">
       <c r="A77" s="7">
         <v>1</v>
       </c>
@@ -7083,7 +7568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24">
       <c r="A78" s="7">
         <v>4</v>
       </c>
@@ -7157,7 +7642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24">
       <c r="A79" s="7">
         <v>1</v>
       </c>
@@ -7231,7 +7716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24">
       <c r="A80" s="7">
         <v>3</v>
       </c>
@@ -7305,7 +7790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24">
       <c r="A81" s="7">
         <v>1</v>
       </c>
@@ -7379,7 +7864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24">
       <c r="A82" s="7">
         <v>1</v>
       </c>
@@ -7453,7 +7938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24">
       <c r="A83" s="7">
         <v>1</v>
       </c>
@@ -7527,7 +8012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24">
       <c r="A84" s="7">
         <v>1</v>
       </c>
@@ -7601,7 +8086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24">
       <c r="A85" s="7">
         <v>1</v>
       </c>
@@ -7675,7 +8160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24">
       <c r="A86" s="7">
         <v>1</v>
       </c>
@@ -7749,7 +8234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24">
       <c r="A87" s="7">
         <v>1</v>
       </c>
@@ -7823,7 +8308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24">
       <c r="A88" s="7">
         <v>4</v>
       </c>
@@ -7897,7 +8382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24">
       <c r="A89" s="7">
         <v>1</v>
       </c>
@@ -7971,7 +8456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24">
       <c r="A90" s="7">
         <v>1</v>
       </c>
@@ -8045,7 +8530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24">
       <c r="A91" s="7">
         <v>5</v>
       </c>
@@ -8119,7 +8604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24">
       <c r="A92" s="7">
         <v>2</v>
       </c>
@@ -8193,7 +8678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24">
       <c r="A93" s="7">
         <v>1</v>
       </c>
@@ -8267,7 +8752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24">
       <c r="A94" s="7">
         <v>3</v>
       </c>
@@ -8341,7 +8826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24">
       <c r="A95" s="7">
         <v>1</v>
       </c>
@@ -8415,7 +8900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24">
       <c r="A96" s="7">
         <v>1</v>
       </c>
@@ -8489,7 +8974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24">
       <c r="A97" s="7">
         <v>3</v>
       </c>
@@ -8563,7 +9048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24">
       <c r="A98" s="7">
         <v>4</v>
       </c>
@@ -8637,7 +9122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24">
       <c r="A99" s="7">
         <v>1</v>
       </c>
@@ -8711,7 +9196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24">
       <c r="A100" s="7">
         <v>2</v>
       </c>
@@ -8785,7 +9270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24">
       <c r="A101" s="7">
         <v>2</v>
       </c>
@@ -8859,7 +9344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24">
       <c r="A102" s="7">
         <v>5</v>
       </c>
@@ -8933,7 +9418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24">
       <c r="A103" s="7">
         <v>1</v>
       </c>
@@ -9007,7 +9492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24">
       <c r="A104" s="7">
         <v>2</v>
       </c>
@@ -9081,7 +9566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24">
       <c r="A105" s="7">
         <v>3</v>
       </c>
@@ -9155,7 +9640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24">
       <c r="A106" s="7">
         <v>5</v>
       </c>
@@ -9229,7 +9714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24">
       <c r="A107" s="7">
         <v>3</v>
       </c>
@@ -9303,7 +9788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24">
       <c r="A108" s="7">
         <v>3</v>
       </c>
@@ -9377,7 +9862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24">
       <c r="A109" s="7">
         <v>3</v>
       </c>
@@ -9451,7 +9936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24">
       <c r="A110" s="7">
         <v>4</v>
       </c>
@@ -9525,7 +10010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24">
       <c r="A111" s="7">
         <v>2</v>
       </c>
@@ -9599,7 +10084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24">
       <c r="A112" s="7">
         <v>2</v>
       </c>
@@ -9673,7 +10158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24">
       <c r="A113" s="7">
         <v>5</v>
       </c>
@@ -9747,7 +10232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24">
       <c r="A114" s="7">
         <v>4</v>
       </c>
@@ -9821,7 +10306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24">
       <c r="A115" s="7">
         <v>2</v>
       </c>
@@ -9895,7 +10380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24">
       <c r="A116" s="7">
         <v>1</v>
       </c>
@@ -9969,7 +10454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24">
       <c r="A117" s="7">
         <v>1</v>
       </c>
@@ -10043,7 +10528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24">
       <c r="A118" s="7">
         <v>1</v>
       </c>
@@ -10117,7 +10602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24">
       <c r="A119" s="7">
         <v>4</v>
       </c>
@@ -10191,7 +10676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24">
       <c r="A120" s="7">
         <v>1</v>
       </c>
@@ -10265,7 +10750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24">
       <c r="A121" s="7">
         <v>3</v>
       </c>
@@ -10339,7 +10824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24">
       <c r="A122" s="7">
         <v>2</v>
       </c>
@@ -10413,7 +10898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24">
       <c r="A123" s="7">
         <v>1</v>
       </c>
@@ -10487,7 +10972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24">
       <c r="A124" s="7">
         <v>1</v>
       </c>
@@ -10561,7 +11046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24">
       <c r="A125" s="7">
         <v>5</v>
       </c>
@@ -10635,7 +11120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24">
       <c r="A126" s="7">
         <v>3</v>
       </c>
@@ -10709,7 +11194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24">
       <c r="A127" s="7">
         <v>3</v>
       </c>
@@ -10783,7 +11268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24">
       <c r="A128" s="7">
         <v>4</v>
       </c>
@@ -10857,7 +11342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24">
       <c r="A129" s="7">
         <v>3</v>
       </c>
@@ -10931,7 +11416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24">
       <c r="A130" s="7">
         <v>2</v>
       </c>
@@ -11005,7 +11490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24">
       <c r="A131" s="7">
         <v>5</v>
       </c>
@@ -11079,7 +11564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24">
       <c r="A132" s="7">
         <v>5</v>
       </c>
@@ -11153,7 +11638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24">
       <c r="A133" s="7">
         <v>3</v>
       </c>
@@ -11227,7 +11712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24">
       <c r="A134" s="7">
         <v>3</v>
       </c>
@@ -11301,7 +11786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24">
       <c r="A135" s="7">
         <v>4</v>
       </c>
@@ -11375,7 +11860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24">
       <c r="A136" s="7">
         <v>4</v>
       </c>
@@ -11449,7 +11934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24">
       <c r="A137" s="7">
         <v>4</v>
       </c>
@@ -11523,7 +12008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24">
       <c r="A138" s="7">
         <v>2</v>
       </c>
@@ -11597,7 +12082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24">
       <c r="A139" s="7">
         <v>2</v>
       </c>
@@ -11671,7 +12156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24">
       <c r="A140" s="7">
         <v>1</v>
       </c>
@@ -11745,7 +12230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24">
       <c r="A141" s="7">
         <v>2</v>
       </c>
@@ -11819,7 +12304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24">
       <c r="A142" s="7">
         <v>5</v>
       </c>
@@ -11893,7 +12378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24">
       <c r="A143" s="7">
         <v>1</v>
       </c>
@@ -11967,7 +12452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24">
       <c r="A144" s="7">
         <v>1</v>
       </c>
@@ -12041,7 +12526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24">
       <c r="A145" s="7">
         <v>4</v>
       </c>
@@ -12115,7 +12600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24">
       <c r="A146" s="7">
         <v>5</v>
       </c>
@@ -12189,7 +12674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24">
       <c r="A147" s="7">
         <v>1</v>
       </c>
@@ -12263,7 +12748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24">
       <c r="A148" s="7">
         <v>2</v>
       </c>
@@ -12337,7 +12822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24">
       <c r="A149" s="7">
         <v>1</v>
       </c>
@@ -12411,7 +12896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24">
       <c r="A150" s="7">
         <v>1</v>
       </c>
@@ -12485,7 +12970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24">
       <c r="A151" s="7">
         <v>2</v>
       </c>
@@ -12559,7 +13044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24">
       <c r="A152" s="7">
         <v>2</v>
       </c>
@@ -12633,7 +13118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24">
       <c r="A153" s="7">
         <v>3</v>
       </c>
@@ -12707,7 +13192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24">
       <c r="A154" s="7">
         <v>2</v>
       </c>
@@ -12781,7 +13266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24">
       <c r="A155" s="7">
         <v>5</v>
       </c>
@@ -12855,7 +13340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24">
       <c r="A156" s="7">
         <v>5</v>
       </c>
@@ -12929,7 +13414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24">
       <c r="A157" s="7">
         <v>2</v>
       </c>
@@ -13003,7 +13488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24">
       <c r="A158" s="7">
         <v>5</v>
       </c>
@@ -13077,7 +13562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24">
       <c r="A159" s="7">
         <v>2</v>
       </c>
@@ -13151,7 +13636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24">
       <c r="A160" s="7">
         <v>4</v>
       </c>
@@ -13225,7 +13710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24">
       <c r="A161" s="7">
         <v>4</v>
       </c>
@@ -13299,7 +13784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24">
       <c r="A162" s="7">
         <v>5</v>
       </c>
@@ -13373,7 +13858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24">
       <c r="A163" s="7">
         <v>4</v>
       </c>
@@ -13447,7 +13932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24">
       <c r="A164" s="7">
         <v>5</v>
       </c>
@@ -13521,7 +14006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24">
       <c r="A165" s="7">
         <v>5</v>
       </c>
@@ -13595,7 +14080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24">
       <c r="A166" s="7">
         <v>1</v>
       </c>
@@ -13669,7 +14154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24">
       <c r="A167" s="7">
         <v>1</v>
       </c>
@@ -13743,7 +14228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24">
       <c r="A168" s="7">
         <v>4</v>
       </c>
@@ -13817,7 +14302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24">
       <c r="A169" s="7">
         <v>2</v>
       </c>
@@ -13891,7 +14376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24">
       <c r="A170" s="7">
         <v>5</v>
       </c>
@@ -13965,7 +14450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24">
       <c r="A171" s="7">
         <v>1</v>
       </c>
@@ -14039,7 +14524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24">
       <c r="A172" s="7">
         <v>2</v>
       </c>
@@ -14113,7 +14598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24">
       <c r="A173" s="7">
         <v>4</v>
       </c>
@@ -14187,7 +14672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24">
       <c r="A174" s="7">
         <v>5</v>
       </c>
@@ -14261,7 +14746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24">
       <c r="A175" s="7">
         <v>4</v>
       </c>
@@ -14335,7 +14820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24">
       <c r="A176" s="7">
         <v>5</v>
       </c>
@@ -14409,7 +14894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:24">
       <c r="A177" s="7">
         <v>3</v>
       </c>
@@ -14483,7 +14968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:24">
       <c r="A178" s="7">
         <v>1</v>
       </c>
@@ -14557,7 +15042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24">
       <c r="A179" s="7">
         <v>4</v>
       </c>
@@ -14631,7 +15116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:24">
       <c r="A180" s="7">
         <v>5</v>
       </c>
@@ -14705,7 +15190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:24">
       <c r="A181" s="7">
         <v>2</v>
       </c>
@@ -14779,7 +15264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:24">
       <c r="A182" s="7">
         <v>5</v>
       </c>
@@ -14853,7 +15338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:24">
       <c r="A183" s="7">
         <v>5</v>
       </c>
@@ -14927,7 +15412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:24">
       <c r="A184" s="7">
         <v>2</v>
       </c>
@@ -15001,7 +15486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:24">
       <c r="A185" s="7">
         <v>1</v>
       </c>
@@ -15075,7 +15560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:24">
       <c r="A186" s="7">
         <v>1</v>
       </c>
@@ -15149,7 +15634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:24">
       <c r="A187" s="7">
         <v>2</v>
       </c>
@@ -15223,7 +15708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:24">
       <c r="A188" s="7">
         <v>1</v>
       </c>
@@ -15297,7 +15782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:24">
       <c r="A189" s="7">
         <v>5</v>
       </c>
@@ -15371,7 +15856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:24">
       <c r="A190" s="7">
         <v>4</v>
       </c>
@@ -15445,7 +15930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:24">
       <c r="A191" s="7">
         <v>5</v>
       </c>
@@ -15519,7 +16004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:24">
       <c r="A192" s="7">
         <v>4</v>
       </c>
@@ -15593,7 +16078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:24">
       <c r="A193" s="7">
         <v>3</v>
       </c>
@@ -15667,7 +16152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:24">
       <c r="A194" s="7">
         <v>1</v>
       </c>
@@ -15741,7 +16226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:24">
       <c r="A195" s="7">
         <v>4</v>
       </c>
@@ -15815,7 +16300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:24">
       <c r="A196" s="7">
         <v>3</v>
       </c>
@@ -15889,7 +16374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:24">
       <c r="A197" s="7">
         <v>2</v>
       </c>
@@ -15963,7 +16448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:24">
       <c r="A198" s="7">
         <v>1</v>
       </c>
@@ -16037,7 +16522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:24">
       <c r="A199" s="7">
         <v>5</v>
       </c>
@@ -16111,7 +16596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:24">
       <c r="A200" s="7">
         <v>5</v>
       </c>
@@ -16185,7 +16670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:24">
       <c r="A201" s="7">
         <v>5</v>
       </c>
@@ -16259,7 +16744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:24">
       <c r="A202" s="7">
         <v>5</v>
       </c>
@@ -16333,7 +16818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:24">
       <c r="A203" s="7">
         <v>5</v>
       </c>
@@ -16407,7 +16892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:24">
       <c r="A204" s="7">
         <v>4</v>
       </c>
@@ -16481,7 +16966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:24">
       <c r="A205" s="7">
         <v>2</v>
       </c>
@@ -16555,7 +17040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:24">
       <c r="A206" s="7">
         <v>2</v>
       </c>
@@ -16629,7 +17114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:24">
       <c r="A207" s="7">
         <v>5</v>
       </c>
@@ -16703,7 +17188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:24">
       <c r="A208" s="7">
         <v>5</v>
       </c>
@@ -16777,7 +17262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:24">
       <c r="A209" s="7">
         <v>4</v>
       </c>
@@ -16851,7 +17336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:24">
       <c r="A210" s="7">
         <v>5</v>
       </c>
@@ -16925,7 +17410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:24">
       <c r="A211" s="7">
         <v>5</v>
       </c>
@@ -16999,7 +17484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:24">
       <c r="A212" s="7">
         <v>1</v>
       </c>
@@ -17073,7 +17558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:24">
       <c r="A213" s="7">
         <v>5</v>
       </c>
@@ -17147,7 +17632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:24">
       <c r="A214" s="7">
         <v>3</v>
       </c>
@@ -17221,7 +17706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:24">
       <c r="A215" s="7">
         <v>3</v>
       </c>
@@ -17295,7 +17780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:24">
       <c r="A216" s="7">
         <v>2</v>
       </c>
@@ -17369,7 +17854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:24">
       <c r="A217" s="7">
         <v>2</v>
       </c>
@@ -17443,7 +17928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:24">
       <c r="A218" s="7">
         <v>2</v>
       </c>
@@ -17517,7 +18002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:24">
       <c r="A219" s="7">
         <v>4</v>
       </c>
@@ -17591,7 +18076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:24">
       <c r="A220" s="7">
         <v>3</v>
       </c>
@@ -17665,7 +18150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:24">
       <c r="A221" s="7">
         <v>4</v>
       </c>
@@ -17739,7 +18224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:24">
       <c r="A222" s="7">
         <v>3</v>
       </c>
@@ -17813,7 +18298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:24">
       <c r="A223" s="7">
         <v>4</v>
       </c>
@@ -17887,7 +18372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:24">
       <c r="A224" s="7">
         <v>2</v>
       </c>
@@ -17961,7 +18446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:24">
       <c r="A225" s="7">
         <v>1</v>
       </c>
@@ -18035,7 +18520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:24">
       <c r="A226" s="7">
         <v>4</v>
       </c>
@@ -18109,7 +18594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:24">
       <c r="A227" s="7">
         <v>5</v>
       </c>
@@ -18183,7 +18668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:24">
       <c r="A228" s="7">
         <v>1</v>
       </c>
@@ -18257,7 +18742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:24">
       <c r="A229" s="7">
         <v>3</v>
       </c>
@@ -18331,7 +18816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:24">
       <c r="A230" s="7">
         <v>3</v>
       </c>
@@ -18405,7 +18890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:24">
       <c r="A231" s="7">
         <v>5</v>
       </c>
@@ -18479,7 +18964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:24">
       <c r="A232" s="7">
         <v>5</v>
       </c>
@@ -18553,7 +19038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:24">
       <c r="A233" s="7">
         <v>5</v>
       </c>
@@ -18627,7 +19112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:24">
       <c r="A234" s="7">
         <v>1</v>
       </c>
@@ -18701,7 +19186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:24">
       <c r="A235" s="7">
         <v>5</v>
       </c>
@@ -18775,7 +19260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:24">
       <c r="A236" s="7">
         <v>5</v>
       </c>
@@ -18849,7 +19334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:24">
       <c r="A237" s="7">
         <v>5</v>
       </c>
@@ -18923,7 +19408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:24">
       <c r="A238" s="7">
         <v>5</v>
       </c>
@@ -18997,7 +19482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:24">
       <c r="A239" s="7">
         <v>5</v>
       </c>
@@ -19071,7 +19556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:24">
       <c r="A240" s="7">
         <v>5</v>
       </c>
@@ -19145,7 +19630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:24">
       <c r="A241" s="7">
         <v>4</v>
       </c>
@@ -19219,7 +19704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:24">
       <c r="A242" s="7">
         <v>5</v>
       </c>
@@ -19293,7 +19778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:24">
       <c r="A243" s="7">
         <v>2</v>
       </c>
@@ -19367,7 +19852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:24">
       <c r="A244" s="7">
         <v>3</v>
       </c>
@@ -19441,7 +19926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:24">
       <c r="A245" s="7">
         <v>1</v>
       </c>
@@ -19515,7 +20000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:24">
       <c r="A246" s="7">
         <v>4</v>
       </c>
@@ -19589,7 +20074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:24">
       <c r="A247" s="7">
         <v>2</v>
       </c>
@@ -19663,7 +20148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:24">
       <c r="A248" s="7">
         <v>2</v>
       </c>
@@ -19737,7 +20222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:24">
       <c r="A249" s="7">
         <v>5</v>
       </c>
@@ -19811,7 +20296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:24">
       <c r="A250" s="7">
         <v>3</v>
       </c>
@@ -19885,7 +20370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:24">
       <c r="A251" s="7">
         <v>2</v>
       </c>
@@ -19959,7 +20444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:24">
       <c r="A252" s="7">
         <v>1</v>
       </c>
@@ -20033,7 +20518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:24">
       <c r="A253" s="7">
         <v>1</v>
       </c>
@@ -20107,7 +20592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:24">
       <c r="A254" s="7">
         <v>1</v>
       </c>
@@ -20181,7 +20666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:24">
       <c r="A255" s="7">
         <v>5</v>
       </c>
@@ -20255,7 +20740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:24">
       <c r="A256" s="7">
         <v>1</v>
       </c>
@@ -20329,7 +20814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:24">
       <c r="A257" s="7">
         <v>1</v>
       </c>
@@ -20403,7 +20888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:24">
       <c r="A258" s="7">
         <v>4</v>
       </c>
@@ -20477,7 +20962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:24">
       <c r="A259" s="7">
         <v>1</v>
       </c>
@@ -20551,7 +21036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:24">
       <c r="A260" s="7">
         <v>2</v>
       </c>
@@ -20625,7 +21110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:24">
       <c r="A261" s="7">
         <v>5</v>
       </c>
@@ -20699,7 +21184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:24">
       <c r="A262" s="7">
         <v>5</v>
       </c>
@@ -20773,7 +21258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:24">
       <c r="A263" s="7">
         <v>5</v>
       </c>
@@ -20847,7 +21332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:24">
       <c r="A264" s="7">
         <v>5</v>
       </c>
@@ -20921,7 +21406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:24">
       <c r="A265" s="7">
         <v>5</v>
       </c>
@@ -20994,6 +21479,649 @@
       <c r="X265" s="7">
         <v>3</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="2" max="2" width="45.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="5" max="5" width="46.125" style="18" customWidth="1"/>
+    <col min="6" max="10" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="82.5">
+      <c r="E1" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="82.5">
+      <c r="D3" s="19"/>
+      <c r="E3" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="1:10" ht="82.5">
+      <c r="A5" s="16"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" spans="1:10" ht="33">
+      <c r="A9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" spans="1:10" s="9" customFormat="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="E13" s="42"/>
+    </row>
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="49.5">
+      <c r="A14" s="16"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="49.5">
+      <c r="A15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+    </row>
+    <row r="22" spans="1:10" s="9" customFormat="1">
+      <c r="A22" s="16"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+    </row>
+    <row r="23" spans="1:10" s="9" customFormat="1" ht="82.5">
+      <c r="A23" s="16"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+    </row>
+    <row r="24" spans="1:10" ht="99">
+      <c r="A24" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="J24" s="37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="37"/>
+      <c r="E25" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="37"/>
+      <c r="E26" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="J26" s="37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="37"/>
+      <c r="E27" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="I27" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="J27" s="37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="37"/>
+      <c r="E28" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="J28" s="37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29" s="37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="16"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+    </row>
+    <row r="32" spans="1:10" s="9" customFormat="1" ht="33">
+      <c r="A32" s="16"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="I32" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="J32" s="38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="33">
+      <c r="A33" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
